--- a/permit/doc/销售导入表样本.xlsx
+++ b/permit/doc/销售导入表样本.xlsx
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预售计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>住宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,18 +53,6 @@
   </si>
   <si>
     <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售不计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋单元数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,6 +242,22 @@
 5.不要修改表头和表尾，包括增加/删除行。但允许修改行和单元格的高度和宽度。
 6.同一个土地证多个预售证号(或现售备案)时，应该拆成多条记录填写，且【土地证号】、【项目名称】、【公安门牌】这三个公共字段必须完全一样。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预(现)售信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预(现)售计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预(现)售不计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预(现)售房屋单元数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +852,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,7 +862,8 @@
     <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="5.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="20" width="5.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.75" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -870,12 +871,12 @@
     <row r="1" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -890,7 +891,7 @@
       <c r="O2" s="17"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -907,38 +908,38 @@
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="23" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L3" s="23"/>
       <c r="M3" s="24" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
       <c r="U3" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
@@ -955,73 +956,73 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="Y4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
@@ -1754,7 +1755,7 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
